--- a/second_pass/welfare_results/isoelastic_NC/analysis_results/net_series_nh_isoelastic_nc.xlsx
+++ b/second_pass/welfare_results/isoelastic_NC/analysis_results/net_series_nh_isoelastic_nc.xlsx
@@ -367,204 +367,320 @@
       <c r="A2" t="n">
         <v>1991</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
+      <c r="B2" t="n">
+        <v>-7486782763.48437</v>
+      </c>
+      <c r="C2" t="n">
+        <v>194658072.226179</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>1992</v>
       </c>
-      <c r="B3"/>
-      <c r="C3"/>
+      <c r="B3" t="n">
+        <v>-7692243037.42163</v>
+      </c>
+      <c r="C3" t="n">
+        <v>198872300.553477</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>1993</v>
       </c>
-      <c r="B4"/>
-      <c r="C4"/>
+      <c r="B4" t="n">
+        <v>-8044990790.45205</v>
+      </c>
+      <c r="C4" t="n">
+        <v>205800221.186393</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>1994</v>
       </c>
-      <c r="B5"/>
-      <c r="C5"/>
+      <c r="B5" t="n">
+        <v>-8447699498.43028</v>
+      </c>
+      <c r="C5" t="n">
+        <v>214623810.690392</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>1995</v>
       </c>
-      <c r="B6"/>
-      <c r="C6"/>
+      <c r="B6" t="n">
+        <v>-8918945906.50423</v>
+      </c>
+      <c r="C6" t="n">
+        <v>224940655.266208</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>1996</v>
       </c>
-      <c r="B7"/>
-      <c r="C7"/>
+      <c r="B7" t="n">
+        <v>-9435262787.26149</v>
+      </c>
+      <c r="C7" t="n">
+        <v>236207486.434758</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>1997</v>
       </c>
-      <c r="B8"/>
-      <c r="C8"/>
+      <c r="B8" t="n">
+        <v>-9598730933.03273</v>
+      </c>
+      <c r="C8" t="n">
+        <v>238905339.286189</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>1998</v>
       </c>
-      <c r="B9"/>
-      <c r="C9"/>
+      <c r="B9" t="n">
+        <v>-9504650308.91488</v>
+      </c>
+      <c r="C9" t="n">
+        <v>238247007.495135</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>1999</v>
       </c>
-      <c r="B10"/>
-      <c r="C10"/>
+      <c r="B10" t="n">
+        <v>-10024512679.3796</v>
+      </c>
+      <c r="C10" t="n">
+        <v>249780541.279266</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>2000</v>
       </c>
-      <c r="B11"/>
-      <c r="C11"/>
+      <c r="B11" t="n">
+        <v>-10345289735.3111</v>
+      </c>
+      <c r="C11" t="n">
+        <v>256542802.657182</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>2001</v>
       </c>
-      <c r="B12"/>
-      <c r="C12"/>
+      <c r="B12" t="n">
+        <v>-10695763072.5808</v>
+      </c>
+      <c r="C12" t="n">
+        <v>263910106.776831</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>2002</v>
       </c>
-      <c r="B13"/>
-      <c r="C13"/>
+      <c r="B13" t="n">
+        <v>-11235134010.4482</v>
+      </c>
+      <c r="C13" t="n">
+        <v>275020679.389736</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>2003</v>
       </c>
-      <c r="B14"/>
-      <c r="C14"/>
+      <c r="B14" t="n">
+        <v>-12209520110.8541</v>
+      </c>
+      <c r="C14" t="n">
+        <v>297664332.832497</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>2004</v>
       </c>
-      <c r="B15"/>
-      <c r="C15"/>
+      <c r="B15" t="n">
+        <v>-12849128847.9421</v>
+      </c>
+      <c r="C15" t="n">
+        <v>312429992.046938</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>2005</v>
       </c>
-      <c r="B16"/>
-      <c r="C16"/>
+      <c r="B16" t="n">
+        <v>-13610950642.5584</v>
+      </c>
+      <c r="C16" t="n">
+        <v>330013138.351873</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>2006</v>
       </c>
-      <c r="B17"/>
-      <c r="C17"/>
+      <c r="B17" t="n">
+        <v>-14226370206.0343</v>
+      </c>
+      <c r="C17" t="n">
+        <v>343753021.775273</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>2007</v>
       </c>
-      <c r="B18"/>
-      <c r="C18"/>
+      <c r="B18" t="n">
+        <v>-14951850360.8803</v>
+      </c>
+      <c r="C18" t="n">
+        <v>360544971.349385</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>2008</v>
       </c>
-      <c r="B19"/>
-      <c r="C19"/>
+      <c r="B19" t="n">
+        <v>-15760961217.2708</v>
+      </c>
+      <c r="C19" t="n">
+        <v>378307639.903304</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>2009</v>
       </c>
-      <c r="B20"/>
-      <c r="C20"/>
+      <c r="B20" t="n">
+        <v>-16414508660.3526</v>
+      </c>
+      <c r="C20" t="n">
+        <v>392247511.800341</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>2010</v>
       </c>
-      <c r="B21"/>
-      <c r="C21"/>
+      <c r="B21" t="n">
+        <v>-17266469047.2412</v>
+      </c>
+      <c r="C21" t="n">
+        <v>411026920.870073</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>2011</v>
       </c>
-      <c r="B22"/>
-      <c r="C22"/>
+      <c r="B22" t="n">
+        <v>-17675091993.32</v>
+      </c>
+      <c r="C22" t="n">
+        <v>421229819.927755</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>2012</v>
       </c>
-      <c r="B23"/>
-      <c r="C23"/>
+      <c r="B23" t="n">
+        <v>-18938132242.3885</v>
+      </c>
+      <c r="C23" t="n">
+        <v>449932337.262187</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>2013</v>
       </c>
-      <c r="B24"/>
-      <c r="C24"/>
+      <c r="B24" t="n">
+        <v>-20001693502.9502</v>
+      </c>
+      <c r="C24" t="n">
+        <v>474449151.48853</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>2014</v>
       </c>
-      <c r="B25"/>
-      <c r="C25"/>
+      <c r="B25" t="n">
+        <v>-20693652116.3298</v>
+      </c>
+      <c r="C25" t="n">
+        <v>490356660.904308</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>2015</v>
       </c>
-      <c r="B26"/>
-      <c r="C26"/>
+      <c r="B26" t="n">
+        <v>-21459539842.9055</v>
+      </c>
+      <c r="C26" t="n">
+        <v>507706789.916135</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>2016</v>
       </c>
-      <c r="B27"/>
-      <c r="C27"/>
+      <c r="B27" t="n">
+        <v>-22563905375.7246</v>
+      </c>
+      <c r="C27" t="n">
+        <v>532979162.218309</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>2017</v>
       </c>
-      <c r="B28"/>
-      <c r="C28"/>
+      <c r="B28" t="n">
+        <v>-23695546072.7516</v>
+      </c>
+      <c r="C28" t="n">
+        <v>557232322.914007</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>2018</v>
       </c>
-      <c r="B29"/>
-      <c r="C29"/>
+      <c r="B29" t="n">
+        <v>-23668824783.063</v>
+      </c>
+      <c r="C29" t="n">
+        <v>557327612.780167</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>2019</v>
       </c>
-      <c r="B30"/>
-      <c r="C30"/>
+      <c r="B30" t="n">
+        <v>-24076128382.3218</v>
+      </c>
+      <c r="C30" t="n">
+        <v>567839186.607365</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
